--- a/xlsx/黏性 (经济学)_intext.xlsx
+++ b/xlsx/黏性 (经济学)_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
   <si>
     <t>黏性 (经济学)</t>
   </si>
@@ -29,7 +29,7 @@
     <t>经济学</t>
   </si>
   <si>
-    <t>政策_政策_貨幣政策_黏性 (经济学)</t>
+    <t>政策_政策_货币政策_黏性 (经济学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%96%87</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E9%AB%94%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>個體經濟學</t>
+    <t>个体经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%A7%E5%B8%81%E5%B9%BB%E8%A7%89</t>
@@ -71,9 +71,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>經濟學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Econ-stub</t>
   </si>
   <si>
@@ -107,13 +104,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%BE%B7%E5%93%A5%E7%88%BE%E6%91%A9%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>斯德哥爾摩學派</t>
+    <t>斯德哥尔摩学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%B5%A6%E9%9D%A2%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>供給面學派</t>
+    <t>供给面学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%A1%E6%B0%B4%E5%AD%A6%E6%B4%BE%E4%B8%8E%E5%92%B8%E6%B0%B4%E5%AD%A6%E6%B4%BE</t>
@@ -137,7 +134,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>貨幣經濟學</t>
+    <t>货币经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -185,7 +182,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E6%A0%B9%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>雷根經濟學</t>
+    <t>雷根经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IS-LM%E6%A8%A1%E5%9E%8B</t>
@@ -251,7 +248,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%C2%B7%E5%85%8B%E8%90%8A%E5%9B%A0</t>
   </si>
   <si>
-    <t>勞倫斯·克萊因</t>
+    <t>劳伦斯·克莱因</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E5%8D%A2%E5%8D%A1%E6%96%AF</t>
@@ -281,7 +278,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%8A%C2%B7%E7%BE%85%E8%B3%93%E9%81%9C</t>
   </si>
   <si>
-    <t>瓊·羅賓遜</t>
+    <t>琼·罗宾逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E8%90%A8%E9%87%91%E7%89%B9</t>
@@ -896,7 +893,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
@@ -922,10 +919,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>8</v>
@@ -951,10 +948,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>2</v>
@@ -980,10 +977,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1009,10 +1006,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1038,10 +1035,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1067,10 +1064,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1096,10 +1093,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1125,10 +1122,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1154,10 +1151,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1183,10 +1180,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1212,10 +1209,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1241,10 +1238,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1270,10 +1267,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1299,10 +1296,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1328,10 +1325,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1357,10 +1354,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1386,10 +1383,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1415,10 +1412,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1444,10 +1441,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1473,10 +1470,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1502,10 +1499,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1531,10 +1528,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1560,10 +1557,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1589,10 +1586,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1618,10 +1615,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1647,10 +1644,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1676,10 +1673,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1705,10 +1702,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1734,10 +1731,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1763,10 +1760,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1792,10 +1789,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1821,10 +1818,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1850,10 +1847,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1879,10 +1876,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -1908,10 +1905,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -1937,10 +1934,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -1966,10 +1963,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
